--- a/output/ml2-pt.xlsx
+++ b/output/ml2-pt.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Foundations of Machine Learning: In this unit, students will learn to distinguish when machine learning is appropriate (and which task type to use), identify features and labels as signals in data, explain how models are trained and make predictions, and describe the end-to-end ML workflow using correct terminology.</t>
+          <t>ML Thinking Basics: In this unit, students will learn to recognize when a problem calls for machine learning (vs. rule-based logic), correctly identify ML task types and their data/label structure, explain how models train and make predictions as functions from inputs to outputs, and map a complete ML workflow from raw data to deployed predictions using accurate terminology.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Learn to distinguish machine learning from rule-based systems, recognize when ML is (and isn’t) appropriate, and correctly identify core ML task types (classification, regression, clustering) as supervised or unsupervised, applying this understanding to real-world scenarios.</t>
+          <t>Learn what machine learning is (and isn’t), when to use ML instead of rule-based logic, and how to match real-world problems to the right ML task type (classification, regression, or clustering) and learning style (supervised vs. unsupervised).</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Foundations of Machine Learning Thinking</t>
+          <t>Choosing the Right Kind of ML</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>Distinguish when a problem is suitable for machine learning versus a rule-based solution by analyzing short scenarios. Output: A completed worksheet or quiz where each scenario is labeled as “ML”, “Rule-based”, or “Hybrid” with brief justifications.</t>
+          <t>Distinguish clearly between problems suitable for rule-based solutions and those better suited for machine learning. Output: A completed worksheet where each scenario is labeled as “Rule-based” or “ML” with a short justification.</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Task Type Matchup</t>
+          <t>Theory Practice Lesson: Task Type Detective</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>Correctly classify real-world problems into classification, regression, or clustering and label them as supervised or unsupervised. Output: A filled-in matching table that maps each scenario to its ML task type and learning type with one-sentence reasoning.</t>
+          <t>Correctly identify whether real-world scenarios are classification, regression, or clustering, and whether they are supervised or unsupervised learning. Output: A categorized list of scenarios mapped to ML task type and learning type with brief explanations.</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Learn to distinguish labeled and unlabeled data, identify features and labels, and understand how feature quality and signal design affect model performance. Apply these ideas in practical scenarios (movie ratings and café customers) while using live sessions to clarify concepts and ask questions.</t>
+          <t>Learn to distinguish features from labels in real datasets, recognize labeled vs. unlabeled data, and see how raw and derived features act as signals that drive model behavior in practical scenarios like recommendations.</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>From Data to Signals</t>
+          <t>Features, Labels, and Signals</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Movie rating dataset</t>
+          <t>Theory Practice Lesson: Finding Features and Labels</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>Identify features, labels, and whether data is labeled or unlabeled in a small, tabular movie-rating example. Output: An annotated table or document where each column is tagged as “feature” or “label” and each dataset fragment as “labeled” or “unlabeled.”</t>
+          <t>Accurately identify input features and labels in different datasets and problem statements. Output: A table where each problem has its features, label, and whether the data is labeled or unlabeled clearly specified.</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cafe customer signals</t>
+          <t>Theory Practice Lesson: Feature Signals in a Recommendation App</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>Differentiate raw and derived features and explain how they can act as useful signals for an ML model. Output: A feature list grouped into “raw” and “derived” with short notes on how each feature might help a model predict customer behavior.</t>
+          <t>Differentiate between raw and derived features and explain how they might affect a simple movie recommendation scenario. Output: A feature inventory document listing raw features, derived features, and a short note on why each might be useful.</t>
         </is>
       </c>
     </row>
@@ -804,12 +804,12 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Understand how machine learning models are trained, how they make predictions, and how they differ from simple rule-based systems. Learn to describe models as functions, distinguish training from inference using concrete examples, and apply this understanding to real-world scenarios like weather forecasting and spam filtering.</t>
+          <t>Understand the difference between training and prediction, and how models act like functions that map inputs to outputs. Learn to distinguish “learning” steps from “using knowledge” steps in ML workflows and compare rule-based systems to learned models on the same problem.</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>From Training to Prediction</t>
+          <t>How Models Learn and Predict</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Weather prediction timeline</t>
+          <t>Theory Practice Lesson: Training vs Prediction Timeline</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>Explain the difference between the training phase and prediction (inference) phase using a step-by-step weather forecast example. Output: A two-column timeline or flow diagram where each step is clearly labeled as “training” or “prediction” with a one-line description.</t>
+          <t>Explain which steps in an ML story correspond to training and which correspond to prediction/use. Output: A labeled timeline or flow diagram separating “learning” steps from “using knowledge” steps for multiple scenarios.</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Spam filter as a function</t>
+          <t>Theory Practice Lesson: Models as Functions vs Rules</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>Describe an ML model as a function mapping email features to outputs and contrast this with a hand-written rule-based filter. Output: A small comparison sheet showing a “rule-based spam filter” vs an “ML model function” with example inputs and outputs for each.</t>
+          <t>Compare a rule-based decision process to a learned model by mapping both to the idea of “inputs → outputs.” Output: A side-by-side comparison table showing inputs, outputs, and logic for a rule-based system and an ML-style function on the same problem.</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Learn to describe and sequence the full machine learning workflow from raw data to deployed predictions, using correct ML terminology. Practice applying this workflow to concrete scenarios and an end-to-end project story, and clarify any remaining questions through live discussion.</t>
+          <t>Learn how a machine learning project moves from raw data through preparation, training, and evaluation to deployment and predictions, and practice using correct workflow vocabulary to describe each step in real-world scenarios.</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>End-to-End ML Workflow</t>
+          <t>From Data to Predictions</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: ML workflow puzzle</t>
+          <t>Theory Practice Lesson: Workflow Jigsaw - Cafe Loyalty Predictor</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>Correctly order shuffled ML workflow steps from raw data to deployed prediction. Output: An ordered list or diagram of workflow stages (e.g., data collection → cleaning → feature prep → training → evaluation → deployment) arranged in the correct sequence.</t>
+          <t>Arrange and describe the main ML workflow steps for a cafe loyalty prediction story using correct vocabulary. Output: A completed ordered list or diagram of workflow steps from data collection to prediction with short explanations.</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Workflow step labeling</t>
+          <t>Theory Practice Lesson: Name the Workflow Step</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>Identify which part of the ML workflow each short scenario belongs to using proper ML terminology. Output: A completed worksheet where each mini-scenario (e.g., “removing outliers,” “comparing accuracy scores”) is labeled with the correct workflow step and vocabulary term.</t>
+          <t>Correctly match short descriptions of ML activities to their place in the overall ML workflow (data prep, training, evaluation, deployment, prediction). Output: A matched list where each activity description is assigned to the appropriate workflow step with one-sentence reasoning.</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: End-to-end ML story</t>
+          <t>Theory Practice Lesson: From Raw Data to Predictions Map</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>Describe an end-to-end ML project for a simple app using the full workflow and correct vocabulary. Output: A short written outline of an ML project story (e.g., for a music recommendation app) that explicitly names each workflow step and what happens there.</t>
+          <t>Construct a high-level map of an ML project, labeling where data, features, training, evaluation, and prediction occur. Output: A one-page conceptual map (bullet list or sketch description) that traces an example project through each workflow stage in order.</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>End-to-End Modeling Foundations: In this unit, students will load and explore tabular data, split it into train and test sets, handle missing values and categorical features, apply scaling and build pipelines to prevent data leakage, and train, evaluate, and interpret complete supervised models on both numeric and text-derived features.</t>
+          <t>From Data to Models: In this unit, students will load and inspect tabular datasets, split data into train and test sets, handle missing values and categorical features, scale numeric data, build preprocessing pipelines, and train and interpret complete supervised models for classification and regression.</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1165,12 +1165,12 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Learn to load and inspect tabular datasets with pandas, distinguish features from targets, and perform reliable train/test splits in scikit-learn. Build intuition for how split choices affect evaluation trustworthiness through hands-on cafe data examples and live Q&amp;A.</t>
+          <t>Learn how to load and inspect tabular datasets with pandas, identify features and targets, and perform reliable train/test splits so you can trust your model evaluations.</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Working With Tabular Data</t>
+          <t>Working with Tabular Data</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cafe sales table explorer</t>
+          <t>Practice Lesson: Cafe orders dataset</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>Load a tabular dataset with pandas, inspect its structure, and clearly distinguish feature columns from the target column. Output: A script that loads a cafe sales CSV, prints basic info (head, shape, dtypes), and clearly lists which columns are features and which is the target.</t>
+          <t>Load a tabular dataset with pandas, inspect its structure (rows, columns, dtypes), and distinguish feature columns from the target. Output: A small script that loads a cafe orders CSV, prints basic info/summary, and clearly displays which columns are features and which is the target.</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Train test split cafe revenue</t>
+          <t>Practice Lesson: Movie ratings train test split</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>Perform a train/test split on a tabular dataset and explain how different split ratios impact evaluation trustworthiness. Output: A script that loads a cafe revenue dataset, performs several train/test splits with different sizes, and prints the resulting shapes and a short text explanation.</t>
+          <t>Perform a train/test split on a movie ratings dataset and explain how different split ratios affect the trustworthiness of model evaluation. Output: A script that loads a movie ratings CSV, performs one or more train/test splits, and prints the resulting shapes and a short text explanation of the chosen split.</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Learn to clean and transform real-world tabular data by handling missing values and encoding categorical features, and practice implementing these steps in Python scripts for a music app dataset while understanding the tradeoffs of different preprocessing choices.</t>
+          <t>Learn how to handle missing values and encode categorical data so that real-world datasets can be reliably used in machine learning models, and practice these skills through hands-on scripting with health and music app data.</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Music app missing data cleanup</t>
+          <t>Practice Lesson: Health records missing values</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>Detect, summarize, and impute missing values in a tabular dataset using simple strategies while reflecting on their tradeoffs. Output: A script that loads a music app user dataset, reports missing values per column, applies simple imputations (mean/median/most frequent), and prints before/after summaries.</t>
+          <t>Detect and summarize missing values in a health records dataset and apply simple imputation strategies while discussing their tradeoffs. Output: A script that loads a health dataset, reports missingness per column, applies at least two imputation strategies, and prints before/after comparisons.</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>Identify categorical features and apply appropriate encodings to prepare them for machine learning models. Output: A script that takes the cleaned music app dataset, detects categorical columns, applies one-hot or ordinal encoding, and prints the transformed feature matrix with its new columns.</t>
+          <t>Identify categorical features in a music app user dataset and encode them into numeric form suitable for ML models, explaining why this step is necessary. Output: A script that loads a music user behavior CSV, detects categorical columns, applies one or more encoders, and prints the transformed feature matrix with encoded categories.</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>Learn how and why to scale numeric features, identify models sensitive to feature scale, and build end‑to‑end scikit-learn pipelines that combine preprocessing and modeling while preventing data leakage and simplifying your ML workflow.</t>
+          <t>Learn why feature scaling matters, how to apply common scaling techniques, and which models depend on proper scaling. Build end‑to‑end preprocessing and modeling pipelines that simplify code, reduce data leakage risk, and prepare you to handle real-world datasets.</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Scaling and Pipelines in Practice</t>
+          <t>Scaling Features with Pipelines</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Fitness tracker feature scaling</t>
+          <t>Practice Lesson: House prices scaling</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>Scale numeric features using standard techniques and reason about when scaling is important for different model types. Output: A script that loads a fitness tracker dataset, applies at least two scaling methods (e.g., StandardScaler and MinMaxScaler), and prints scaled samples and summary statistics.</t>
+          <t>Apply feature scaling to numeric columns in a housing prices dataset and compare how different scaling methods change feature distributions. Output: A script that loads a housing CSV, scales selected numeric features using at least two scalers, and prints/plots basic statistics before and after scaling.</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Fitness tracker pipeline flow</t>
+          <t>Practice Lesson: Loan approval pipeline</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t>Build a preprocessing and model pipeline that combines scaling and a simple estimator while preventing data leakage. Output: A script that creates a scikit-learn Pipeline for the fitness tracker dataset, fits it on training data, and evaluates it on test data with a single fit/predict flow.</t>
+          <t>Build a preprocessing and model pipeline for a loan approval dataset and show how it simplifies code while reducing the risk of data leakage. Output: A script that defines a scikit-learn Pipeline combining preprocessing steps and a model, fits it on training data, and evaluates it on test data with a single fit/predict flow.</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>Learn to train, evaluate, and interpret simple supervised machine learning models end-to-end on both numeric and text data, from raw datasets through to saved models and predictions. Practice implementing complete workflows in code, asking questions, and consolidating understanding through hands-on projects and live Q&amp;A.</t>
+          <t>Build and evaluate complete supervised machine learning workflows for both classification and regression, from raw data through training to predictions. Learn to interpret model outputs using basic metrics, confusion matrices, and concrete prediction examples.</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Building Your First ML Models</t>
+          <t>First End‑to‑End ML Models</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: House price predictor - Part 1</t>
+          <t>Practice Lesson: Email spam classifier - Part 1</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
-          <t>Prepare a real-estate dataset and train a complete supervised model end-to-end, from raw data to fitted model. Output: A script that loads a housing dataset, performs basic preprocessing, splits the data, trains a regression model, and saves the trained model object.</t>
+          <t>Prepare text-based email data and train a first complete supervised model, generating predictions on a held-out test set. Output: A script that loads an email spam dataset, splits it, vectorizes the text, trains a classifier, and outputs spam/not-spam predictions for the test set.</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: House price predictor - Part 2</t>
+          <t>Practice Lesson: Email spam classifier - Part 2</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="I49" s="3" t="inlineStr">
         <is>
-          <t>Generate predictions on test data using a previously trained model and interpret key aspects of the model’s outputs. Output: A script that loads the saved housing model, makes predictions on test data, compares them to true prices, and prints simple evaluation metrics and example prediction pairs.</t>
+          <t>Inspect and interpret the outputs of the spam classifier, including basic metrics and example predictions, to understand model behavior. Output: A script that computes evaluation metrics (e.g., accuracy, precision, recall), prints a confusion matrix, and displays a few example emails with their predicted and true labels.</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Restaurant review sentiment model</t>
+          <t>Practice Lesson: Taxi fare prediction</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="I50" s="3" t="inlineStr">
         <is>
-          <t>Train a simple classification model end-to-end on text-derived features and interpret its predictions on new examples. Output: A script that loads a restaurant review dataset (with pre-extracted numeric features or encodings), trains a classifier, evaluates accuracy on a test set, and prints predicted sentiments for a few sample reviews.</t>
+          <t>Train an end-to-end regression model to predict taxi fares, then generate and briefly interpret numeric predictions for new rides. Output: A script that loads a taxi rides dataset, trains a regression model, and prints predicted fares for a sample of test or new ride inputs alongside their actual values where available.</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Supervised Models &amp; Evaluation: In this unit, students will build and compare linear, tree-based, and ensemble models for classification and regression, interpret their predictions using appropriate metrics, and diagnose overfitting vs good generalization with validation and cross-validation techniques.</t>
+          <t>Core ML Models &amp; Evaluation: In this unit, students will train and compare core supervised learning models (logistic regression, linear regression, decision trees, and tree-based ensembles), and evaluate them using appropriate classification and regression metrics while reasoning about overfitting, generalization, and cross-validation.</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>Learn to build a first supervised model (Logistic Regression) for binary classification and evaluate it using appropriate metrics. Understand accuracy, precision, recall, F1-score, and confusion matrices, and apply them in practical contexts like spam detection and medical testing to choose suitable metrics for different problem settings.</t>
+          <t>Learn how to build and evaluate your first supervised classification model using logistic regression. You’ll practice training models, interpreting probabilities and metrics (accuracy, precision, recall, F1, confusion matrices), and see how metric and threshold choices change model performance in real-world scenarios like spam detection and medical tests.</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Evaluating Binary Classification Models</t>
+          <t>Logistic Regression in Action</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
-          <t>Explain binary classification problems; Train a Logistic Regression model end-to-end; Explain predicted probabilities vs predicted classes; Explain why accuracy alone is not enough for model evaluation</t>
+          <t>Explain binary classification problems; Train a Logistic Regression model end-to-end; Introduce the idea of predicted probabilities vs. predicted classes; Motivate the need for model evaluation (why accuracy alone is not enough)</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t>Calculate and interpret accuracy, precision, recall, and F1-score; Read and interpret a confusion matrix; Re-evaluate the Logistic Regression model using different metrics; Explain how metric choice depends on the problem context</t>
+          <t>Calculate and interpret accuracy, precision, recall, and F1-score; Read and interpret a confusion matrix; Re-evaluate the Logistic Regression model using different metrics; Discuss how metric choice depends on the problem context</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Email spam classifier</t>
+          <t>Practice Lesson: Email spam detector</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I57" s="3" t="inlineStr">
         <is>
-          <t>Train and evaluate a Logistic Regression model for binary email spam classification, interpreting both predicted probabilities and predicted classes. Output: A script that takes example emails (or feature vectors) and prints whether each is predicted as spam or not spam along with its predicted probability.</t>
+          <t>Train and evaluate a Logistic Regression model for binary classification using predicted probabilities and class labels on an email spam dataset. Output: A script that loads sample email features, trains a spam vs. not-spam model, and prints predicted probabilities and classes for new emails.</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="I58" s="3" t="inlineStr">
         <is>
-          <t>Compute accuracy, precision, recall, and F1-score for a medical test classifier and interpret a confusion matrix in the context of disease detection. Output: A script that prints a confusion matrix and classification metrics, then summarizes model performance trade-offs in text.</t>
+          <t>Compute and interpret accuracy, precision, recall, F1-score, and a confusion matrix for a Logistic Regression model in a medical test scenario, and explain why accuracy alone can be misleading. Output: A script that trains a disease classifier, prints its confusion matrix and classification metrics, and compares model performance under different decision thresholds.</t>
         </is>
       </c>
     </row>
@@ -1967,12 +1967,12 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>Learn how to build, interpret, and evaluate linear regression models for numeric prediction tasks. Practice training models, interpreting prediction errors, and comparing models using MAE, MSE/RMSE, and R² to choose appropriate evaluation metrics.</t>
+          <t>Learn how to build, evaluate, and compare linear regression models for numeric prediction tasks, using apartment and house price examples. Understand core regression metrics (MAE, MSE, RMSE, R²) and interpret model errors as distances from true values.</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>Regression Fundamentals and Evaluation</t>
+          <t>Predicting Prices with Regression</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I61" s="3" t="inlineStr">
         <is>
-          <t>Explain numeric prediction tasks; Train a Linear Regression model; Interpret predictions vs actual values; Introduce regression error intuitively as distance from the true value</t>
+          <t>Explain numeric prediction tasks; Train a Linear Regression model; Interpret predictions vs. actual values; Introduce regression error intuitively (distance from the true value)</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t>Train a Linear Regression model to predict apartment prices from features and interpret prediction errors as distances from true values. Output: A script that trains a model and prints predicted vs actual prices for a test set along with per-example errors.</t>
+          <t>Build a Linear Regression model to predict apartment prices from features, and compare predicted vs. actual prices to understand regression error as distance from the true value. Output: A script that trains a price prediction model and prints a side-by-side table of actual vs. predicted prices with their errors.</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Regression metric comparison</t>
+          <t>Practice Lesson: House price metrics dashboard</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="I64" s="3" t="inlineStr">
         <is>
-          <t>Calculate and compare MAE, MSE/RMSE, and R² for one or more regression models to understand different aspects of prediction error. Output: A script that trains at least two regression models and prints their MAE, RMSE, and R² side by side for comparison.</t>
+          <t>Calculate MAE, MSE, RMSE, and R² for a Linear Regression model on house prices and use these metrics to compare two different models or feature sets. Output: A script that trains two regression models, computes all regression metrics for each, and prints a concise comparison report.</t>
         </is>
       </c>
     </row>
@@ -2114,12 +2114,12 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>Learn how to build and interpret decision trees and ensemble models (Random Forest, Gradient Boosting), compare them to linear models like Logistic Regression, and understand when and why tree-based and ensemble methods can offer performance and interpretability advantages in real-world classification tasks.</t>
+          <t>Learn how decision trees and tree-based ensembles work, how to train and interpret them, and how they compare to linear models in real-world tasks like loan approval and customer churn prediction.</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Tree-Based Models and Ensembles</t>
+          <t>Tree Models and Ensembles</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="I67" s="3" t="inlineStr">
         <is>
-          <t>Explain decision trees at a conceptual level; Train a tree-based classifier; Compare linear vs non-linear models; Discuss strengths and limitations of tree-based approaches</t>
+          <t>Explain decision trees at a conceptual level; Train a tree-based classifier; Compare linear vs. non-linear models; Discuss strengths and limitations of tree-based approaches</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="I69" s="3" t="inlineStr">
         <is>
-          <t>Train a decision tree classifier for loan approval, compare its behavior to Logistic Regression, and discuss linear vs non-linear decision boundaries. Output: A script that fits both a decision tree and a logistic regression model, reports their performance, and shows example predictions for comparison.</t>
+          <t>Train and visualize a decision tree classifier for loan approval, and compare its behavior and decision boundaries conceptually to a linear model. Output: A script that fits a decision tree to loan application data, exports a simple tree visualization or text representation, and prints example decisions for sample applicants.</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="I70" s="3" t="inlineStr">
         <is>
-          <t>Train Random Forest and Gradient Boosting classifiers for customer churn prediction and build intuition for why ensembles can outperform a single tree. Output: A script that trains ensemble models, compares their metrics to a single decision tree, and prints a short performance summary.</t>
+          <t>Train tree-based ensemble models (Random Forest and Gradient Boosting) for customer churn prediction and compare their performance and intuition to a single decision tree. Output: A script that trains a baseline decision tree, a Random Forest, and a Gradient Boosting model, then prints their evaluation metrics side by side.</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>Learn to diagnose overfitting and underfitting, compare train vs test performance, and explain the bias-variance tradeoff. Gain hands-on experience using single train/test splits and k-fold cross-validation to obtain reliable performance estimates and interpret model behavior.</t>
+          <t>Learn to recognize overfitting, underfitting, and good generalization by comparing train vs. test performance, build intuition for the bias–variance tradeoff through hands-on experiments, and apply cross-validation to obtain more reliable model evaluation.</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>Model Generalization and Validation</t>
+          <t>Overfitting, Generalization, and Validation</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="I73" s="3" t="inlineStr">
         <is>
-          <t>Identify signs of overfitting and underfitting; Compare train vs test performance; Explain the bias-variance tradeoff; Explain the concept of cross-validation; Compare a single train/test split vs multiple folds</t>
+          <t>Identify signs of overfitting and underfitting; Compare train vs. test performance; Explain the bias-variance tradeoff; Introduce cross-validation conceptually; Compare single train/test split vs. multiple folds</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Overfitting and underfitting diagnosis</t>
+          <t>Practice Lesson: Model overfitting quiz</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="I74" s="3" t="inlineStr">
         <is>
-          <t>Identify overfitting, underfitting, and good generalization by analyzing given train/test performance scenarios and explaining the bias-variance tradeoff. Output: A completed written exercise where different model behavior descriptions are matched to overfitting/underfitting/generalization labels with justifications.</t>
+          <t>Identify overfitting, underfitting, and good generalization by analyzing given learning curves, train/test scores, and scenario descriptions in a written quiz-style exercise. Output: A completed answer sheet where each scenario is labeled as overfitting, underfitting, or well-generalized, with brief justifications.</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Movie rating model validation - Part 1</t>
+          <t>Practice Lesson: Train vs. test performance explorer</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="I75" s="3" t="inlineStr">
         <is>
-          <t>Compare train vs test performance for a movie rating prediction model at different model complexities to identify signs of overfitting and underfitting. Output: A script that trains several models with varying complexity, prints their train and test errors, and highlights where overfitting and underfitting occur.</t>
+          <t>Experiment with model complexity (e.g., tree depth or polynomial degree) and observe how train and test performance change to build intuition for the bias-variance tradeoff. Output: A script that trains models of varying complexity, records train/test scores, and prints a small table or simple text-based summary of how performance evolves.</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Movie rating model validation - Part 2</t>
+          <t>Practice Lesson: Cross-validation comparison</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I76" s="3" t="inlineStr">
         <is>
-          <t>Implement k-fold cross-validation for the movie rating model and compare results to a single train/test split to understand variance and stability of performance estimates. Output: A script that runs k-fold cross-validation, prints fold-wise and average scores, and contrasts them with a single split score.</t>
+          <t>Apply k-fold cross-validation conceptually and in code to compare a single train/test split with multiple folds, and interpret the stability of performance across folds. Output: A script that evaluates a model using one train/test split and k-fold cross-validation, then prints the fold scores, their mean, and a comparison to the single-split score.</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Unsupervised ML &amp; Projects: In this unit, students will tune model hyperparameters responsibly, apply core unsupervised methods (K-Means and PCA) to explore unlabeled data, interpret clustering and dimensionality-reduction results cautiously, and complete small end-to-end ML projects that define clear problems, build pipelines, and evaluate models with appropriate metrics.</t>
+          <t>Hyperparameters &amp; Unsupervised ML: In this unit, students will tune and interpret model hyperparameters, distinguish supervised from unsupervised learning, apply K-Means clustering and PCA for exploration and visualization, and build small end-to-end ML projects while communicating results responsibly.</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -2475,12 +2475,12 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Students will learn to distinguish hyperparameters from learned parameters, tune models with tools like GridSearchCV/RandomizedSearchCV, and interpret tuning results responsibly. They will also develop a conceptual understanding of unsupervised learning, including when to use it, how it differs from supervised learning, and how to apply it for exploratory analysis in label-scarce settings.</t>
+          <t>Learn to tune model hyperparameters responsibly, compare search strategies in practice, and interpret results without overclaiming. Distinguish supervised from unsupervised learning and identify when exploratory, label-free methods are the right tool for real-world problems.</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>Hyperparameters and Unsupervised Exploration</t>
+          <t>Tuning Models and Exploring Data</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="I83" s="3" t="inlineStr">
         <is>
-          <t>You will practice defining hyperparameters vs learned parameters and use GridSearchCV to tune a simple spam classifier while interpreting the results responsibly. Output: A script that trains a spam detection model with GridSearchCV and prints the best hyperparameters, validation scores, and a short explanation of the chosen configuration.</t>
+          <t>Apply GridSearchCV and RandomizedSearchCV to tune hyperparameters, compare results, and interpret them without overfitting your conclusions. Output: A script that trains a simple spam vs not-spam classifier, runs hyperparameter search, and prints the best parameters and validation scores in a readable summary.</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="G84" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Theory quiz on unsupervised learning</t>
+          <t>Theory Practice Lesson: Supervised vs unsupervised scenarios</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="I84" s="3" t="inlineStr">
         <is>
-          <t>You will reinforce your conceptual understanding of unsupervised learning by answering a written quiz, doing label/no-label scenario matching, and identifying appropriate exploratory ML use cases. Output: A completed quiz document where each question, scenario, and matching item is answered and briefly justified in text.</t>
+          <t>Distinguish between supervised and unsupervised learning by matching real-world problems to the correct approach and articulating exploratory goals when labels are missing. Output: A completed written/quiz-style exercise where each scenario is classified as supervised or unsupervised with a short justification.</t>
         </is>
       </c>
     </row>
@@ -2622,12 +2622,12 @@
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Learn how to apply K-Means clustering to group customers into meaningful segments, choose an appropriate number of clusters using simple heuristics, and interpret the resulting clusters at a high level to support business understanding and decision-making.</t>
+          <t>Learn how K-Means clustering groups similar data points, how to choose a reasonable number of clusters, and how to interpret clusters as simple personas. Practice these skills by building and evaluating clustering models on customer and music listener datasets, and by discussing questions and tradeoffs with peers.</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>Customer Segmentation with K-Means</t>
+          <t>Clustering with K-Means</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G89" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Customer segmentation with K-Means</t>
+          <t>Practice Lesson: Customer segments with K-Means</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I89" s="3" t="inlineStr">
         <is>
-          <t>You will train a K-Means clustering model on synthetic customer data and interpret clusters at a high level as different customer segments. Output: A script that fits K-Means, assigns each customer to a cluster, and prints simple summaries describing each segment (e.g., “budget shoppers”, “high spenders”).</t>
+          <t>Train a K-Means clustering model on synthetic customer data and interpret clusters in terms of simple customer “personas.” Output: A script that fits K-Means, assigns each customer to a cluster, and prints basic cluster summaries (e.g., average spending and visits per cluster).</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G90" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Choosing k with elbow and silhouette</t>
+          <t>Practice Lesson: Choosing k for a music listener dataset</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t>You will experiment with different values of k and apply simple heuristics (elbow method and silhouette scores) to choose a reasonable number of clusters and discuss tradeoffs. Output: A script that runs K-Means for several k values, plots the elbow curve, computes silhouette scores, and prints a short recommendation for k.</t>
+          <t>Use elbow and silhouette-style heuristics to choose the number of clusters and explain tradeoffs between too few and too many clusters. Output: A script that trains K-Means for several k values, computes simple metrics, and prints/plots results to help pick a reasonable k.</t>
         </is>
       </c>
     </row>
@@ -2769,12 +2769,12 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>Learn to use PCA for dimensionality reduction and visualization, and to interpret unsupervised learning outputs (like clustering and PCA plots) cautiously and in context. Practice applying PCA to real data, visualizing patterns, and communicating findings responsibly while understanding their limitations.</t>
+          <t>Learn to use PCA for visualizing high-dimensional data, and practice interpreting unsupervised learning outputs—like PCA plots and clusters—responsibly, avoiding common over-interpretation pitfalls.</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>Interpreting Unsupervised Learning</t>
+          <t>Making Sense of Unsupervised Results</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="G95" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: PCA visualization of a music app dataset</t>
+          <t>Practice Lesson: PCA visualization of handwritten digits</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="I95" s="3" t="inlineStr">
         <is>
-          <t>You will apply PCA to reduce a high-dimensional song-features dataset to 2D and create scatterplots to visualize patterns in listening behavior. Output: A script that performs PCA, produces a 2D scatterplot (saved to file) of songs or users, and prints brief observations about visible groupings.</t>
+          <t>Apply PCA to reduce high-dimensional data to 2D and visualize how data points group in the reduced space. Output: A script that loads a digits dataset, performs PCA to 2 components, and produces a 2D scatter plot colored by digit label.</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="G96" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Theory practice on interpreting unsupervised results</t>
+          <t>Theory Practice Lesson: Interpreting unsupervised results responsibly</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="I96" s="3" t="inlineStr">
         <is>
-          <t>You will critically analyze given clustering and PCA plots in a written exercise, identifying possible misinterpretations and explaining how to communicate limitations responsibly. Output: A completed worksheet where you annotate example figures, answer reflection questions, and propose cautious, context-aware interpretations.</t>
+          <t>Critically evaluate clustering and PCA outputs by identifying over-interpretation risks and rewriting misleading statements into responsible conclusions. Output: A completed written/quiz-style exercise where given interpretations are marked as problematic or acceptable and revised where needed.</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>In this chapter, you’ll practice running end-to-end machine learning projects, from defining the problem and preparing data to building, tuning, and evaluating models using pipelines. You’ll apply these skills to a movie recommendation task and a customer churn prediction mini-project, and reflect on results, metrics, and next steps.</t>
+          <t>Learn to design and implement small, end-to-end machine learning projects: framing clear problems, preparing data, building pipelines, training and evaluating models, and explaining results using practical regression and classification examples.</t>
         </is>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>Building and Refining ML Pipelines</t>
+          <t>End-to-End ML in Practice</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G100" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Movie recommendation pipeline - Part 1</t>
+          <t>Practice Lesson: House price predictor - Part 1</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I100" s="3" t="inlineStr">
         <is>
-          <t>You will define a clear ML problem, load and clean a movie ratings dataset, and build a preprocessing and modeling pipeline for a baseline recommendation-related task. Output: A script that ingests raw ratings data, performs basic feature engineering, constructs a scikit-learn pipeline, and trains an initial model with baseline metrics printed.</t>
+          <t>Frame a clear supervised ML problem, prepare a tabular dataset, and build a basic preprocessing and modeling pipeline. Output: A script that loads housing data, splits it, applies preprocessing (e.g., imputation and encoding), and fits a baseline regression model using a pipeline.</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="G101" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Movie recommendation pipeline - Part 2</t>
+          <t>Practice Lesson: House price predictor - Part 2</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="I101" s="3" t="inlineStr">
         <is>
-          <t>You will refine the movie recommendation pipeline by adjusting preprocessing, tuning the model, and evaluating it with appropriate metrics while documenting the decisions. Output: A script that reuses the pipeline, performs improved training and evaluation (e.g., cross-validation), compares metrics to Part 1, and prints a short summary of improvements.</t>
+          <t>Evaluate the end-to-end model with appropriate metrics, perform simple tuning, and summarize results in plain language. Output: A script that extends Part 1 to compute evaluation metrics (e.g., RMSE), optionally tune hyperparameters, and print a concise performance report.</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="G102" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Customer churn prediction mini-project</t>
+          <t>Practice Lesson: Movie recommendation classifier</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I102" s="3" t="inlineStr">
         <is>
-          <t>You will run a small end-to-end ML project on churn prediction, from problem statement through data preparation, model training, evaluation, and a brief written summary of findings. Output: A script that loads a churn dataset, builds a pipeline, trains and evaluates a classifier with clear metrics, and outputs a concise textual report of results and next steps.</t>
+          <t>Design and implement a small end-to-end ML project that predicts whether a user will like a movie, including problem definition, data prep, modeling, and evaluation. Output: A script that takes user-movie feature data, trains a classifier, evaluates it with classification metrics, and prints predictions for a few example users.</t>
         </is>
       </c>
     </row>
